--- a/ImidPilot/imidachloprid calculations 2016.xlsx
+++ b/ImidPilot/imidachloprid calculations 2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaalger/AlgerProjects/ImidPilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208B479-45A9-0F4F-938A-CF5FE43C46E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="24080" windowHeight="16380" tabRatio="925" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="24080" windowHeight="16380" tabRatio="925" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="imidachloprid calculation" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="imidachloprid experiment data3" sheetId="7" r:id="rId7"/>
     <sheet name="evaporation trials2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>Units</t>
   </si>
@@ -221,11 +222,23 @@
   <si>
     <t>evap 4</t>
   </si>
+  <si>
+    <t>total consump</t>
+  </si>
+  <si>
+    <t>weight of 1mL 30% sucrose</t>
+  </si>
+  <si>
+    <t>total consump_mL</t>
+  </si>
+  <si>
+    <t>total Imid consump_ng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -648,6 +661,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -973,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5324,7 +5340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6193,7 +6209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
@@ -7567,7 +7583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7615,14 +7631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13592,19 +13608,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -13629,8 +13649,20 @@
       <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -13655,8 +13687,23 @@
       <c r="H2" s="7">
         <v>0.19100000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>SUM(D2:H2)</f>
+        <v>1.1890000000000003</v>
+      </c>
+      <c r="J2">
+        <f>I2/$N$2</f>
+        <v>1.0584569732937688</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>'imidachloprid calculation'!J22</f>
+        <v>1.1233333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -13681,8 +13728,19 @@
       <c r="H3" s="7">
         <v>0.34099999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">SUM(D3:H3)</f>
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">I3/$N$2</f>
+        <v>1.5106824925816025</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -13707,8 +13765,19 @@
       <c r="H4" s="7">
         <v>0.29899999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.581</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>1.4074183976261128</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -13733,8 +13802,19 @@
       <c r="H5" s="7">
         <v>0.33699999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.5540000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>2.2735905044510387</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -13759,8 +13839,19 @@
       <c r="H6" s="7">
         <v>0.28599999999999981</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.2789999999999997</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.1385756676557861</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -13785,8 +13876,19 @@
       <c r="H7" s="7">
         <v>0.44700000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.363</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.213353115727003</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -13811,8 +13913,19 @@
       <c r="H8" s="7">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.2245999999999997</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.0901483679525221</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -13837,8 +13950,19 @@
       <c r="H9" s="7">
         <v>0.29099999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.4813056379821958</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -13863,8 +13987,19 @@
       <c r="H10" s="7">
         <v>0.31199999999999983</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>2.1289999999999996</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.8952522255192874</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -13889,8 +14024,19 @@
       <c r="H11" s="7">
         <v>0.33099999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.4469999999999998</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.2881305637982194</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -13915,8 +14061,19 @@
       <c r="H12" s="7">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2.468</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2.1970326409495549</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -13941,8 +14098,19 @@
       <c r="H13" s="7">
         <v>0.33200000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.5642999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.3925519287833827</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -13967,8 +14135,19 @@
       <c r="H14" s="7">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.5125999999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.3465281899109793</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -13993,8 +14172,19 @@
       <c r="H15" s="7">
         <v>0.17199999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.1270000000000002</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.0032640949554898</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>31</v>
       </c>
@@ -14009,8 +14199,19 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
@@ -14027,8 +14228,19 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.23099999999999987</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.20563798219584559</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -14053,8 +14265,19 @@
       <c r="H18" s="7">
         <v>0.38099999999999978</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.9149999999999996</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.7047477744807118</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -14079,8 +14302,19 @@
       <c r="H19" s="7">
         <v>0.29600000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.341</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.1937685459940652</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -14105,8 +14339,19 @@
       <c r="H20" s="7">
         <v>0.30100000000000016</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1.4372</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.279406528189911</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -14131,8 +14376,19 @@
       <c r="H21" s="7">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.8899109792284869</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>0.1</v>
       </c>
@@ -14157,8 +14413,20 @@
       <c r="H22" s="7">
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1.5010000000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.3362017804154305</v>
+      </c>
+      <c r="K22">
+        <f>J22*A22</f>
+        <v>0.13362017804154305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>0.1</v>
       </c>
@@ -14183,8 +14451,20 @@
       <c r="H23" s="7">
         <v>0.24700000000000011</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.5044510385756678</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K86" si="2">J23*A23</f>
+        <v>0.15044510385756679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>0.1</v>
       </c>
@@ -14209,8 +14489,20 @@
       <c r="H24" s="7">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2.0629999999999997</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1.8364985163204746</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0.18364985163204747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>0.1</v>
       </c>
@@ -14235,8 +14527,20 @@
       <c r="H25" s="7">
         <v>0.33699999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1.7609999999999997</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1.5676557863501481</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0.15676557863501484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>0.1</v>
       </c>
@@ -14261,8 +14565,20 @@
       <c r="H26" s="7">
         <v>0.39300000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1.575</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1.4020771513353116</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.14020771513353117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>0.1</v>
       </c>
@@ -14287,8 +14603,20 @@
       <c r="H27" s="7">
         <v>0.21399999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2.8779999999999997</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>2.5620178041543022</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0.25620178041543024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>0.1</v>
       </c>
@@ -14313,8 +14641,20 @@
       <c r="H28" s="7">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>3.7795000000000001</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>3.3645400593471813</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0.33645400593471814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>0.1</v>
       </c>
@@ -14339,8 +14679,20 @@
       <c r="H29" s="7">
         <v>0.43899999999999983</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>2.2189999999999994</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1.9753709198813052</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.19753709198813052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>0.1</v>
       </c>
@@ -14365,8 +14717,20 @@
       <c r="H30" s="7">
         <v>0.36799999999999988</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1.871</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>1.6655786350148369</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.16655786350148372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>0.1</v>
       </c>
@@ -14381,8 +14745,20 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>0.1</v>
       </c>
@@ -14407,8 +14783,20 @@
       <c r="H32" s="7">
         <v>0.45999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>2.234</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.9887240356083087</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0.19887240356083088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>0.1</v>
       </c>
@@ -14425,8 +14813,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.20899999999999985</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.18605341246290788</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>1.8605341246290787E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>0.1</v>
       </c>
@@ -14451,8 +14851,20 @@
       <c r="H34" s="7">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1.6557863501483678</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0.1655786350148368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>0.1</v>
       </c>
@@ -14477,8 +14889,20 @@
       <c r="H35" s="7">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.97210682492581613</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>9.7210682492581621E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>0.1</v>
       </c>
@@ -14501,8 +14925,20 @@
         <v>0.65699999999999981</v>
       </c>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1.3809999999999998</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1.2293768545994064</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.12293768545994065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>0.1</v>
       </c>
@@ -14517,8 +14953,20 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>0.1</v>
       </c>
@@ -14543,8 +14991,20 @@
       <c r="H38" s="7">
         <v>0.35000000000000009</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1.9480000000000002</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>1.7341246290801189</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0.17341246290801191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>0.1</v>
       </c>
@@ -14569,8 +15029,20 @@
       <c r="H39" s="7">
         <v>0.21599999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1.929</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1.7172106824925817</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0.17172106824925817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>0.1</v>
       </c>
@@ -14595,8 +15067,20 @@
       <c r="H40" s="7">
         <v>0.32400000000000007</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>1.6050445103857567</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0.16050445103857569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>0.1</v>
       </c>
@@ -14621,8 +15105,20 @@
       <c r="H41" s="7">
         <v>0.15799999999999992</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1.4659999999999997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>1.3050445103857564</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0.13050445103857564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>1</v>
       </c>
@@ -14647,8 +15143,20 @@
       <c r="H42" s="7">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1.8139999999999998</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>1.6148367952522253</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>1.6148367952522253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>1</v>
       </c>
@@ -14673,8 +15181,20 @@
       <c r="H43" s="7">
         <v>0.22599999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>1.0979999999999999</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0.97744807121661714</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0.97744807121661714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>1</v>
       </c>
@@ -14699,8 +15219,20 @@
       <c r="H44" s="7">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>1.0548961424332346</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1.0548961424332346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>1</v>
       </c>
@@ -14725,8 +15257,20 @@
       <c r="H45" s="7">
         <v>0.28699999999999992</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>1.2988130563798221</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>1.2988130563798221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>1</v>
       </c>
@@ -14751,8 +15295,20 @@
       <c r="H46" s="7">
         <v>0.46500000000000008</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>2.9989999999999997</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>2.6697329376854597</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>2.6697329376854597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>1</v>
       </c>
@@ -14777,8 +15333,20 @@
       <c r="H47" s="7">
         <v>0.35199999999999987</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1.5509999999999995</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>1.3807121661721065</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>1.3807121661721065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>1</v>
       </c>
@@ -14803,8 +15371,20 @@
       <c r="H48" s="7">
         <v>0.20099999999999985</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>1.1750741839762611</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>1.1750741839762611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>1</v>
       </c>
@@ -14829,8 +15409,20 @@
       <c r="H49" s="7">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2.004</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>1.7839762611275964</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>1.7839762611275964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="39">
         <v>1</v>
       </c>
@@ -14847,8 +15439,20 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0.21199999999999997</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>0.18872403560830858</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0.18872403560830858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>1</v>
       </c>
@@ -14863,8 +15467,20 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>1</v>
       </c>
@@ -14889,8 +15505,20 @@
       <c r="H52" s="7">
         <v>0.42200000000000015</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>1.7020771513353115</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>1.7020771513353115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>1</v>
       </c>
@@ -14915,8 +15543,20 @@
       <c r="H53" s="7">
         <v>0.39099999999999979</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1.6680000000000001</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>1.4848664688427302</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>1.4848664688427302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>1</v>
       </c>
@@ -14941,8 +15581,20 @@
       <c r="H54" s="7">
         <v>0.35700000000000021</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>1.5231454005934719</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>1.5231454005934719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>1</v>
       </c>
@@ -14967,8 +15619,20 @@
       <c r="H55" s="7">
         <v>0.32899999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>1.7890000000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1.5925816023738875</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>1.5925816023738875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>1</v>
       </c>
@@ -14993,8 +15657,20 @@
       <c r="H56" s="7">
         <v>0.31899999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999997</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>1.0148367952522253</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>1.0148367952522253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>1</v>
       </c>
@@ -15019,8 +15695,20 @@
       <c r="H57" s="7">
         <v>0.47900000000000009</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>1.758</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>1.5649851632047478</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>1.5649851632047478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>1</v>
       </c>
@@ -15045,8 +15733,20 @@
       <c r="H58" s="7">
         <v>0.35000000000000009</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>1.9504451038575668</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>1.9504451038575668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>1</v>
       </c>
@@ -15071,8 +15771,20 @@
       <c r="H59" s="7">
         <v>0.25300000000000011</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>1.4510385756676558</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>1.4510385756676558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>1</v>
       </c>
@@ -15097,8 +15809,20 @@
       <c r="H60" s="7">
         <v>0.17599999999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0.9209999999999996</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.81988130563798189</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0.81988130563798189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>1</v>
       </c>
@@ -15123,8 +15847,20 @@
       <c r="H61" s="7">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1.7369999999999997</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>1.5462908011869434</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>1.5462908011869434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>10</v>
       </c>
@@ -15149,8 +15885,20 @@
       <c r="H62" s="7">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>1.3630000000000002</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>1.2133531157270032</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>12.133531157270031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>10</v>
       </c>
@@ -15175,8 +15923,20 @@
       <c r="H63" s="7">
         <v>0.33100000000000018</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>1.377</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>1.2258160237388724</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>12.258160237388724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>10</v>
       </c>
@@ -15201,8 +15961,20 @@
       <c r="H64" s="7">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>1.2639999999999998</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>1.1252225519287833</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>11.252225519287833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>10</v>
       </c>
@@ -15227,8 +15999,20 @@
       <c r="H65" s="7">
         <v>0.28699999999999992</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>1.5659999999999998</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>1.3940652818991097</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>13.940652818991097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>10</v>
       </c>
@@ -15253,8 +16037,20 @@
       <c r="H66" s="7">
         <v>0.28500000000000014</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>1.2060000000000002</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>1.0735905044510388</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>10.735905044510387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>10</v>
       </c>
@@ -15279,8 +16075,20 @@
       <c r="H67" s="7">
         <v>0.21599999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I101" si="3">SUM(D67:H67)</f>
+        <v>1.1649999999999998</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J101" si="4">I67/$N$2</f>
+        <v>1.0370919881305636</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>10.370919881305635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>10</v>
       </c>
@@ -15305,8 +16113,20 @@
       <c r="H68" s="7">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>1.417</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>1.2614243323442138</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>12.614243323442139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>10</v>
       </c>
@@ -15331,8 +16151,20 @@
       <c r="H69" s="7">
         <v>0.23099999999999987</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>1.1239999999999997</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>1.0005934718100888</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>10.005934718100889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>10</v>
       </c>
@@ -15357,8 +16189,20 @@
       <c r="H70" s="7">
         <v>0.20300000000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>1.0570000000000002</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>0.94094955489614263</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>9.4094955489614271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>10</v>
       </c>
@@ -15383,8 +16227,20 @@
       <c r="H71" s="7">
         <v>0.16199999999999992</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>1.284</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>1.1430267062314541</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>11.430267062314542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>10</v>
       </c>
@@ -15409,8 +16265,20 @@
       <c r="H72" s="7">
         <v>0.30800000000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>1.7296735905044511</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>17.29673590504451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>10</v>
       </c>
@@ -15435,8 +16303,20 @@
       <c r="H73" s="7">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>1.4517999999999998</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>1.2924035608308604</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>12.924035608308603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>10</v>
       </c>
@@ -15461,8 +16341,20 @@
       <c r="H74" s="7">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>1.3439999999999996</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="4"/>
+        <v>1.1964391691394656</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>11.964391691394656</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>10</v>
       </c>
@@ -15487,8 +16379,20 @@
       <c r="H75" s="7">
         <v>0.38400000000000012</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>1.504</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>1.3388724035608308</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>13.388724035608309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>10</v>
       </c>
@@ -15513,8 +16417,20 @@
       <c r="H76" s="7">
         <v>0.27699999999999991</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>1.2519999999999998</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="4"/>
+        <v>1.1145400593471808</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>11.145400593471809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>10</v>
       </c>
@@ -15539,8 +16455,20 @@
       <c r="H77" s="7">
         <v>0.27500000000000013</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>1.375</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>1.2240356083086055</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>12.240356083086056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>10</v>
       </c>
@@ -15555,8 +16483,20 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>10</v>
       </c>
@@ -15581,8 +16521,20 @@
       <c r="H79" s="7">
         <v>0.21799999999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>1.0976261127596441</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>10.976261127596441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
         <v>10</v>
       </c>
@@ -15599,8 +16551,20 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>0.19399999999999995</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>0.17270029673590501</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>1.7270029673590501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>10</v>
       </c>
@@ -15625,8 +16589,20 @@
       <c r="H81" s="7">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>1.3019999999999998</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>1.1590504451038575</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>11.590504451038575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>20</v>
       </c>
@@ -15651,8 +16627,20 @@
       <c r="H82" s="7">
         <v>0.18900000000000006</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>1.0327000000000002</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="4"/>
+        <v>0.91931750741839779</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>18.386350148367956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>20</v>
       </c>
@@ -15677,8 +16665,20 @@
       <c r="H83" s="7">
         <v>0.17599999999999993</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>0.83700000000000041</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="4"/>
+        <v>0.745103857566766</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>14.90207715133532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>20</v>
       </c>
@@ -15703,8 +16703,20 @@
       <c r="H84" s="7">
         <v>0.17700000000000005</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>0.7976261127596439</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>15.952522255192878</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>20</v>
       </c>
@@ -15729,8 +16741,20 @@
       <c r="H85" s="7">
         <v>0.20300000000000007</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>0.85459940652819011</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>17.091988130563802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>20</v>
       </c>
@@ -15755,8 +16779,20 @@
       <c r="H86" s="7">
         <v>0.2609999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>1.069139465875371</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>21.38278931750742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>20</v>
       </c>
@@ -15781,8 +16817,20 @@
       <c r="H87" s="7">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>0.82799999999999985</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>0.73709198813056365</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K101" si="5">J87*A87</f>
+        <v>14.741839762611272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>20</v>
       </c>
@@ -15807,8 +16855,20 @@
       <c r="H88" s="7">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="4"/>
+        <v>0.76112759643916916</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>15.222551928783384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>20</v>
       </c>
@@ -15833,8 +16893,20 @@
       <c r="H89" s="7">
         <v>0.21100000000000008</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>0.87000000000000033</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="4"/>
+        <v>0.77448071216617242</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>15.489614243323448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>20</v>
       </c>
@@ -15859,8 +16931,20 @@
       <c r="H90" s="7">
         <v>0.15799999999999992</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>0.75667655786350163</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>15.133531157270033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>20</v>
       </c>
@@ -15885,8 +16969,20 @@
       <c r="H91" s="7">
         <v>0.21499999999999986</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>0.94199999999999973</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="4"/>
+        <v>0.83857566765578617</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>16.771513353115722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>20</v>
       </c>
@@ -15911,8 +17007,20 @@
       <c r="H92" s="7">
         <v>0.17300000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>0.98400000000000021</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>0.87596439169139484</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>17.519287833827896</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>20</v>
       </c>
@@ -15937,8 +17045,20 @@
       <c r="H93" s="7">
         <v>0.21500000000000008</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>1.0520000000000005</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="4"/>
+        <v>0.9364985163204752</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>18.729970326409504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>20</v>
       </c>
@@ -15963,8 +17083,20 @@
       <c r="H94" s="7">
         <v>0.11099999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>0.8839999999999999</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="4"/>
+        <v>0.78694362017804143</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>15.738872403560828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>20</v>
       </c>
@@ -15989,8 +17121,20 @@
       <c r="H95" s="7">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>0.90300000000000025</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="4"/>
+        <v>0.80385756676557885</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>16.077151335311576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>20</v>
       </c>
@@ -16015,8 +17159,20 @@
       <c r="H96" s="7">
         <v>0.20399999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="4"/>
+        <v>2.3501483679525221</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>47.002967359050444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>20</v>
       </c>
@@ -16035,8 +17191,20 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>0.40399999999999991</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="4"/>
+        <v>0.35964391691394654</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>7.1928783382789305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>20</v>
       </c>
@@ -16061,8 +17229,20 @@
       <c r="H98" s="7">
         <v>0.20999999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="4"/>
+        <v>1.0130563798219585</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>20.26112759643917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>20</v>
       </c>
@@ -16087,8 +17267,20 @@
       <c r="H99" s="7">
         <v>0.19700000000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>0.94200000000000017</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="4"/>
+        <v>0.83857566765578651</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>16.771513353115729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>20</v>
       </c>
@@ -16113,8 +17305,20 @@
       <c r="H100" s="7">
         <v>0.19300000000000006</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>0.81500000000000017</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="4"/>
+        <v>0.72551928783382802</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>14.510385756676561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>20</v>
       </c>
@@ -16138,6 +17342,18 @@
       </c>
       <c r="H101" s="7">
         <v>0.252</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>1.0439999999999998</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="4"/>
+        <v>0.92937685459940644</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>18.587537091988128</v>
       </c>
     </row>
   </sheetData>
@@ -16146,11 +17362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
